--- a/Resources/同类账号/WebCrawler/小红书/喜欢编程的杨同学/statistics.xlsx
+++ b/Resources/同类账号/WebCrawler/小红书/喜欢编程的杨同学/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\自媒体选题\Resources\同类账号\WebCrawler\小红书\喜欢编程的杨同学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE8EBC3-DE33-402D-B7B7-771C5B1A4B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D9C38D-CE9B-4500-84D4-82E4D1FE197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,578 +46,581 @@
     <t>6906</t>
   </si>
   <si>
+    <t>其实盲打很简单</t>
+  </si>
+  <si>
+    <t>5960</t>
+  </si>
+  <si>
+    <t>一分钟学会AI学语文</t>
+  </si>
+  <si>
+    <t>5491</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67aa1184000000002a003b03?xsec_token=ABorCOVXYSBZwecVpUrf0Fa2vPvWAyc3JypxzVqSnMr-U=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>5分钟就能学会的ai编程</t>
+  </si>
+  <si>
+    <t>3727</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6793769e0000000029014f0e?xsec_token=ABLFcfiB-mIkwPHE7or2oe2H1A856_rpcuiOmX4ki8J7E=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>有了AI，我们还需要学编程吗？</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>小学生的AI大会演讲</t>
+  </si>
+  <si>
+    <t>2690</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67fb3d99000000001200fa23?xsec_token=ABTRUizQ-9lTBIffZk-GsyaqPMbXZSy-Ih8ivi-yZTHoE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>一周学会盲打</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/676029a600000000130039de?xsec_token=AByo7_JoxRoXF0U2PG5H70M-PwWR3ntwqeHsBYczrd4gE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>免费的小学生编程学习网站</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6743c76c00000000070332be?xsec_token=ABxIv3ssXhL84IpP5tZBJkHPXqzfEM7T4OWfERKyBRYr4=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>编程入门很简单</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67a61c31000000002803f98b?xsec_token=ABXPz8hhw7Q9bMesqfITT2_cNFDp1K1V_8NQjxepym0C8=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>用AI，轻松练口语</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67bef58a000000002903a892?xsec_token=ABiijrS2Eemf_lqPbfpFFrxpOWaCwG37Y8iAfcU7JwmLw=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>数学也可以很有趣</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67a2b999000000002802b6cd?xsec_token=ABp6s6pf2J82AY2hll-0eERtcdcI0-9guLU9gbJmcEPB0=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生要不要学编程，几岁学</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6783aa33000000002001d998?xsec_token=ABru8ytB_qh6TE2EZUlSCE6za_GAI2CZ-VaCZs57bcAWE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>推荐一个C++算法学习网站</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/671500d9000000002401997e?xsec_token=ABjxbwPBD8KicqLlR_DedQoYjF7zLZtBf2A6wbgLrrWJI=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>AI用的好，语文分数少不了</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/677fdec4000000001a037f12?xsec_token=ABCXGFkdWLZGdW5TjsE_iwc2eZh4umeS5K9Cvz5ZjyFyk=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>围观小学生和AI吵架</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6797a4a6000000002a000ba8?xsec_token=AB3alYOA3OW-GAhROmWpC3v3QPtoTqr7h14W5uSmlgzcc=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生的寒假计划</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/678af6690000000019010044?xsec_token=ABhMMmT_c75DNCCiuMvJPlKmhUGAiqwsr5WlhJMZbiKgs=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>学C++前要不要学Scratch</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/671f9ec40000000024015d02?xsec_token=ABEKz9noUVLTU0M1r_xQTcix9H6RWwlb5v-3Sqoh_UarM=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生vs豆包辩论赛</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/678fb8ec0000000028028378?xsec_token=ABLWx3DQ-AZpn-b4yPS_27tK-yCwBS1i_1jt6Uz4wUcik=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>推荐一本适合算法入门的书</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6786728c000000000b00c9e7?xsec_token=ABoVi_ERtbF0XIyCWiQulp3hK8-Jx4bpN0qyDGwHzDj0o=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>5分钟，用AI让你看见梦想</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67de6272000000001c0067c5?xsec_token=AB07n8ryBQpu9OKooQESFp84q12vnVd3fnCDwYPTUDzIo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>AI学数学超简单 ai学习 夸克AI夸克深度思考</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67e69c79000000001d03810b?xsec_token=ABDRARH7h89kMGJcGpZLpHUUFRqhwjlSfUpOyrHNpgwzs=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>兴趣是学习最大的动力</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/672b4c7c000000001b011e10?xsec_token=ABmMbGUUxvCdktIp4urnLxd6UJi-3mVpqNiA53ft4a9xE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>参加过最差的一次比赛</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66372d1f000000001e035237?xsec_token=ABD8y3FV8FP0aHIYbwmxwY1twofLotY-z4b0NNbqv9gEU=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>编程学习不再枯燥。</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67f0bcb6000000001d001a58?xsec_token=ABGISgmqyKOaIQpPMNrd1VIAZJh-EFBCP5NGUgMyXwJKY=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生要不要学编程，怎么学</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/673c1e6e00000000070371dc?xsec_token=AB1LW9EZX4rcDSHCrqqmAGdjZXyYsJtgJxWxu6w_CV5SI=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>5分钟就能学会的AI编程</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67cecfa6000000002a00fedd?xsec_token=ABU-pqHyS4lJP3HQShPFy5HJO9L4eFpu3JcJWDdNVChqs=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生编程软件推荐</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/68172b99000000002101a293?xsec_token=ABfEmFmx5yG1Uz4BXUwGUoG57STf5EpCsFTbx3RVvJUsE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>简单高效的学习方法</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67d56e3c000000001c006d44?xsec_token=ABuQKbkz4WuRcu0MDZRomQyRyzJrdyEsHi4YXBdxLV9SQ=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>没有ai做不到的，只有你想不到的</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67728e340000000014025632?xsec_token=ABHzSem_GgMRkYZQlGsRVgfeTv00rp98Nue3nhNSBHcmI=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>AI编程太好用了</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67c684e4000000002803ef24?xsec_token=ABb2a_2bULE3ygpZevBFuWA2WL917YXK0bne1KN7ZkvfY=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>儿子靠这本书把C++算法彻底学透了！</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/662cf5b4000000000401920d?xsec_token=ABUWxk7UH0M40Lh879ayh5gLeHPBg8l6fiAMbjHhrYXic=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/68083151000000001d003295?xsec_token=AB7TICIH0Y0toFrjuHCHPrQ7QYcRu2aeLkfI0ll-K9vbk=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>浙江的csp-j初赛真的难啊</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66d852230000000012012dd3?xsec_token=AB8kKsz-xoDa96qqd6zj2eCBrMiNeBC5js4i_pD1a0_YM=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>你会让孩子提前学吗</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67b946be000000002901bf61?xsec_token=ABSDOUjq_WA2Ra1SoNyg4baiT2aRSNtpcgbQ1_cWhywyc=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>ai辩论太有趣了</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/677bce1c00000000190373e9?xsec_token=ABQg_r4c1VfTe5jI6woDKexi3QimEfZ5My73eRy4n4nRc=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>据说这是小众赛道。。</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66f35f1b000000001a022f49?xsec_token=ABMBRejNUo-ugS4m3ACmiVYUzJGeUBR2ZhaYtsL6C7k4c=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>含金量很高的编程等级考试</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/674ae9c90000000007030487?xsec_token=AB9tFAaHv-0VWuD6_sZ4LpgvfBgO7AcK2eAA28L291D8A=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生要不要学信奥赛</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/661f897a00000000010051fb?xsec_token=ABu0P5wEEW-JIAC_nTgUh1FHGBLFJyRjKL5My8WO4xFj8=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>美国信奥赛你准备好了吗</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/675ad8c3000000000603d496?xsec_token=ABljHEIHOlewb4lZjxXbUKSkp0siXlSXyKlnQSsPJZVTE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>如何切换DEV C++背景色</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67332cc10000000019019048?xsec_token=ABCR4fhKiAtl1jpMW_FQLXba0CGXJzm6Q1X5mbN8euujU=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>学编程的小朋友如何保护眼睛</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/674e8a4f0000000007030ed3?xsec_token=ABbvgawynW8QSTOe7aqX8GoUm1g_i4WFYaRLtFdixRMvQ=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>一年的努力，就为了这一天，加油！</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66ee2322000000001e01916e?xsec_token=ABYuTML5YKCvZLoGO0egO80fE0IaY4JPT_HZY2ccLSxQY=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>五年级小朋友的心愿清单</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/650afec2000000002000142c?xsec_token=ABv8zo2-pg6Xsdh1b0pqsGpMpQfTl9zrok0Jnh9U3U_ig=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>每天打卡，告别拖延症</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/665dd0780000000006007f19?xsec_token=AB8xnVkxtrSHVRDOd9GJ1DG0Yf3TNDSlSEfZck3v_LKsk=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>AI预测2025高考作文题</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/680660c0000000001d018d94?xsec_token=AB5N-dUSKqAo6qTuuWI31XHrS6aOxVtK1-PG9efKaXdFo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>每个优秀的孩子背后都有一个操心的妈妈</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/671b9e450000000021009a97?xsec_token=ABn4lLl-0xUapff_BG-g6o1YOo_02nGElOTX2OEd3JFrg=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>csp-j复赛，自己定的刷题计划。</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/670789ec000000001b0204b2?xsec_token=ABHwNKFH4DTR829izxEU0xf7EfFN-AadWXvKP7CFKpR1M=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生敲代码能有多快</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/671e4fb00000000021002ae7?xsec_token=ABovHMQcoc0WFeQfk_RovOD744CXHL21f54UUXimVW1M0=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>csp-j复赛，准备好了吗</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/671c42490000000021009385?xsec_token=ABY9hdxJrS2vZac2wsjMwQRr2JX8oCGQs1ICPG2reB3VE=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>csp-j数学必备书籍</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66a6e2c5000000000600f3b7?xsec_token=ABVIQHrX2BK3DFVnzCwyuMVPHuuoeHcvCqBjYvFGsU0TM=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>99%的人都不知道的电脑关机方法</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/682006860000000022026dda?xsec_token=ABVMKZNeXrVHNOj_EboBaY9j95R0kL48yzEHn7FWOHZyo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生编程电脑推荐</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/68282ddb000000000f032e7a?xsec_token=ABpV_-3nELdujAX4A6WqxVBJKfKgHMBINp8DHXhocMmHI=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>学习时，你有选择恐惧症吗</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67caf3fd000000002900de76?xsec_token=ABh2yyKvE49nkTofSztAMlW9NR2K1lPNFe-nDtZqdZVVc=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>斯坦福大学畅销书专家和你聊AI</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6800f172000000001c031350?xsec_token=ABPyMEUtXTKEn6SYkIAb5hLlODT9bBi5qQMcDvMdO1ppo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生编程入门书籍推荐，别再花钱走弯路了</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6655e3f50000000016012608?xsec_token=ABoJpfu4oOthrmB1IbTiBybl700hejpGgV_5gpMHIPc3Q=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>什么是热爱</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6632f2de000000001e031298?xsec_token=ABMAe4V-hDhj2Q-Vzghjl0-IPjatXESvMdXjut4Rzayjo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>小学生学编程都应该参加的考试</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6753edec0000000007025f10?xsec_token=ABICija-Do44E8GcKu7NDTe0Rh9z-eQxICLbVOx0LkR-w=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>csp-j考完了，杭州一个考场的考生就这么多，真卷啊</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66ee62f4000000000c018c57?xsec_token=ABYuTML5YKCvZLoGO0egO80fazGCo8GWiSetl5u-3u3ro=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>一分钟学会函数，包会</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66bb74f6000000001e01c2dc?xsec_token=ABtfmgD4wDimtz8LYFd328bn6hjTDyUJCE-0WtZGD785k=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>据说是程序员的标配</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/663e2ff5000000001e036324?xsec_token=ABYcDO-WpMp9MeWx6F96F71Oojk2cVsaP3rEMisYk24Ow=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>人工智能会不会干坏事会抢走人类饭碗吗</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/681208e00000000021008e64?xsec_token=ABM0o9KdqYkbyxgE_fcPnmXos99PdmSc_vDHnpsrZ-oY4=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>家有喜欢编程的小朋友</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66fb7344000000001b02247f?xsec_token=ABRg-zPAMJIahVFmFDo8z5OcuCjwcOLa4-fKXUXOtb1Sc=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>你们要的源代码来了</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/672e232d000000001b010732?xsec_token=AB4jGa0_-wNyPR1xleaoizbz4tcXl-zZiK0kPxlEH9hzU=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>杭州信奥赛考场</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6505126d000000001d0148be?xsec_token=ABzap-M-MWsKTZE3w9OVCd7xgz0zd9L0qRxbGDicekiAM=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>信奥赛考完了</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/6505559a000000001e03eade?xsec_token=ABzap-M-MWsKTZE3w9OVCd74e4Yb_YOwaGGdktE2-cRjo=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>信奥赛，你准备好了吗</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66e7a92800000000120138c7?xsec_token=AB9prsYq5V8aQ8P6yVfk8mPJGH1KPETWdViTPcU5qJuy4=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>csp-j 复赛加油💪</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/66f6aaf6000000001a022782?xsec_token=ABcoqrLQFmNnt-gyv7a2yNysVfsJ1TOZgucBaoQFUsln0=&amp;xsec_source=pc_user</t>
+  </si>
+  <si>
+    <t>https://www.xiaohongshu.com/explore/67eab619000000001c013fe0?xsec_token=AB1Y4RlvBS7CyM1m3pZwnij4c8mv5jGej-BdGHEXJogIs=&amp;xsec_source=pc_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.xiaohongshu.com/explore/67b16a40000000002902b534?xsec_token=ABRijbPrglRQdxdIV4Zt1TNQqCpxKLKMB2x72-MjwfHRw=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>其实盲打很简单</t>
-  </si>
-  <si>
-    <t>5960</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67eab619000000001c013fe0?xsec_token=AB1Y4RlvBS7CyM1m3pZwnij4c8mv5jGej-BdGHEXJogIs=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>一分钟学会AI学语文</t>
-  </si>
-  <si>
-    <t>5491</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67aa1184000000002a003b03?xsec_token=ABorCOVXYSBZwecVpUrf0Fa2vPvWAyc3JypxzVqSnMr-U=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>5分钟就能学会的ai编程</t>
-  </si>
-  <si>
-    <t>3727</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6793769e0000000029014f0e?xsec_token=ABLFcfiB-mIkwPHE7or2oe2H1A856_rpcuiOmX4ki8J7E=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>有了AI，我们还需要学编程吗？</t>
-  </si>
-  <si>
-    <t>2864</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.xiaohongshu.com/explore/676a954b0000000014021264?xsec_token=ABTC6__12RbjMenXSHBwk9_RxKfCftnzEyQhdheJ06xgc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生的AI大会演讲</t>
-  </si>
-  <si>
-    <t>2690</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67fb3d99000000001200fa23?xsec_token=ABTRUizQ-9lTBIffZk-GsyaqPMbXZSy-Ih8ivi-yZTHoE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>一周学会盲打</t>
-  </si>
-  <si>
-    <t>2281</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/676029a600000000130039de?xsec_token=AByo7_JoxRoXF0U2PG5H70M-PwWR3ntwqeHsBYczrd4gE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>免费的小学生编程学习网站</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6743c76c00000000070332be?xsec_token=ABxIv3ssXhL84IpP5tZBJkHPXqzfEM7T4OWfERKyBRYr4=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>编程入门很简单</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67a61c31000000002803f98b?xsec_token=ABXPz8hhw7Q9bMesqfITT2_cNFDp1K1V_8NQjxepym0C8=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>用AI，轻松练口语</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67bef58a000000002903a892?xsec_token=ABiijrS2Eemf_lqPbfpFFrxpOWaCwG37Y8iAfcU7JwmLw=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>数学也可以很有趣</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67a2b999000000002802b6cd?xsec_token=ABp6s6pf2J82AY2hll-0eERtcdcI0-9guLU9gbJmcEPB0=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生要不要学编程，几岁学</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6783aa33000000002001d998?xsec_token=ABru8ytB_qh6TE2EZUlSCE6za_GAI2CZ-VaCZs57bcAWE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>推荐一个C++算法学习网站</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/671500d9000000002401997e?xsec_token=ABjxbwPBD8KicqLlR_DedQoYjF7zLZtBf2A6wbgLrrWJI=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>AI用的好，语文分数少不了</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/677fdec4000000001a037f12?xsec_token=ABCXGFkdWLZGdW5TjsE_iwc2eZh4umeS5K9Cvz5ZjyFyk=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>围观小学生和AI吵架</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6797a4a6000000002a000ba8?xsec_token=AB3alYOA3OW-GAhROmWpC3v3QPtoTqr7h14W5uSmlgzcc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生的寒假计划</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/678af6690000000019010044?xsec_token=ABhMMmT_c75DNCCiuMvJPlKmhUGAiqwsr5WlhJMZbiKgs=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>学C++前要不要学Scratch</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/671f9ec40000000024015d02?xsec_token=ABEKz9noUVLTU0M1r_xQTcix9H6RWwlb5v-3Sqoh_UarM=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生vs豆包辩论赛</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/678fb8ec0000000028028378?xsec_token=ABLWx3DQ-AZpn-b4yPS_27tK-yCwBS1i_1jt6Uz4wUcik=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>推荐一本适合算法入门的书</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6786728c000000000b00c9e7?xsec_token=ABoVi_ERtbF0XIyCWiQulp3hK8-Jx4bpN0qyDGwHzDj0o=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>5分钟，用AI让你看见梦想</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67de6272000000001c0067c5?xsec_token=AB07n8ryBQpu9OKooQESFp84q12vnVd3fnCDwYPTUDzIo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>AI学数学超简单 ai学习 夸克AI夸克深度思考</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67e69c79000000001d03810b?xsec_token=ABDRARH7h89kMGJcGpZLpHUUFRqhwjlSfUpOyrHNpgwzs=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>兴趣是学习最大的动力</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/672b4c7c000000001b011e10?xsec_token=ABmMbGUUxvCdktIp4urnLxd6UJi-3mVpqNiA53ft4a9xE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>参加过最差的一次比赛</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66372d1f000000001e035237?xsec_token=ABD8y3FV8FP0aHIYbwmxwY1twofLotY-z4b0NNbqv9gEU=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>编程学习不再枯燥。</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67f0bcb6000000001d001a58?xsec_token=ABGISgmqyKOaIQpPMNrd1VIAZJh-EFBCP5NGUgMyXwJKY=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生要不要学编程，怎么学</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/673c1e6e00000000070371dc?xsec_token=AB1LW9EZX4rcDSHCrqqmAGdjZXyYsJtgJxWxu6w_CV5SI=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>5分钟就能学会的AI编程</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67cecfa6000000002a00fedd?xsec_token=ABU-pqHyS4lJP3HQShPFy5HJO9L4eFpu3JcJWDdNVChqs=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生编程软件推荐</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/68172b99000000002101a293?xsec_token=ABfEmFmx5yG1Uz4BXUwGUoG57STf5EpCsFTbx3RVvJUsE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>简单高效的学习方法</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67d56e3c000000001c006d44?xsec_token=ABuQKbkz4WuRcu0MDZRomQyRyzJrdyEsHi4YXBdxLV9SQ=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>没有ai做不到的，只有你想不到的</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67728e340000000014025632?xsec_token=ABHzSem_GgMRkYZQlGsRVgfeTv00rp98Nue3nhNSBHcmI=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>AI编程太好用了</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67c684e4000000002803ef24?xsec_token=ABb2a_2bULE3ygpZevBFuWA2WL917YXK0bne1KN7ZkvfY=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>儿子靠这本书把C++算法彻底学透了！</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/662cf5b4000000000401920d?xsec_token=ABUWxk7UH0M40Lh879ayh5gLeHPBg8l6fiAMbjHhrYXic=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/68083151000000001d003295?xsec_token=AB7TICIH0Y0toFrjuHCHPrQ7QYcRu2aeLkfI0ll-K9vbk=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>浙江的csp-j初赛真的难啊</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66d852230000000012012dd3?xsec_token=AB8kKsz-xoDa96qqd6zj2eCBrMiNeBC5js4i_pD1a0_YM=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>你会让孩子提前学吗</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67b946be000000002901bf61?xsec_token=ABSDOUjq_WA2Ra1SoNyg4baiT2aRSNtpcgbQ1_cWhywyc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>ai辩论太有趣了</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/677bce1c00000000190373e9?xsec_token=ABQg_r4c1VfTe5jI6woDKexi3QimEfZ5My73eRy4n4nRc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>据说这是小众赛道。。</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66f35f1b000000001a022f49?xsec_token=ABMBRejNUo-ugS4m3ACmiVYUzJGeUBR2ZhaYtsL6C7k4c=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>含金量很高的编程等级考试</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/674ae9c90000000007030487?xsec_token=AB9tFAaHv-0VWuD6_sZ4LpgvfBgO7AcK2eAA28L291D8A=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生要不要学信奥赛</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/661f897a00000000010051fb?xsec_token=ABu0P5wEEW-JIAC_nTgUh1FHGBLFJyRjKL5My8WO4xFj8=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>美国信奥赛你准备好了吗</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/675ad8c3000000000603d496?xsec_token=ABljHEIHOlewb4lZjxXbUKSkp0siXlSXyKlnQSsPJZVTE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>如何切换DEV C++背景色</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67332cc10000000019019048?xsec_token=ABCR4fhKiAtl1jpMW_FQLXba0CGXJzm6Q1X5mbN8euujU=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>学编程的小朋友如何保护眼睛</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/674e8a4f0000000007030ed3?xsec_token=ABbvgawynW8QSTOe7aqX8GoUm1g_i4WFYaRLtFdixRMvQ=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>一年的努力，就为了这一天，加油！</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66ee2322000000001e01916e?xsec_token=ABYuTML5YKCvZLoGO0egO80fE0IaY4JPT_HZY2ccLSxQY=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>五年级小朋友的心愿清单</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/650afec2000000002000142c?xsec_token=ABv8zo2-pg6Xsdh1b0pqsGpMpQfTl9zrok0Jnh9U3U_ig=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>每天打卡，告别拖延症</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/665dd0780000000006007f19?xsec_token=AB8xnVkxtrSHVRDOd9GJ1DG0Yf3TNDSlSEfZck3v_LKsk=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>AI预测2025高考作文题</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/680660c0000000001d018d94?xsec_token=AB5N-dUSKqAo6qTuuWI31XHrS6aOxVtK1-PG9efKaXdFo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>每个优秀的孩子背后都有一个操心的妈妈</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/671b9e450000000021009a97?xsec_token=ABn4lLl-0xUapff_BG-g6o1YOo_02nGElOTX2OEd3JFrg=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>csp-j复赛，自己定的刷题计划。</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/670789ec000000001b0204b2?xsec_token=ABHwNKFH4DTR829izxEU0xf7EfFN-AadWXvKP7CFKpR1M=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生敲代码能有多快</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/671e4fb00000000021002ae7?xsec_token=ABovHMQcoc0WFeQfk_RovOD744CXHL21f54UUXimVW1M0=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>csp-j复赛，准备好了吗</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/671c42490000000021009385?xsec_token=ABY9hdxJrS2vZac2wsjMwQRr2JX8oCGQs1ICPG2reB3VE=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>csp-j数学必备书籍</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66a6e2c5000000000600f3b7?xsec_token=ABVIQHrX2BK3DFVnzCwyuMVPHuuoeHcvCqBjYvFGsU0TM=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>99%的人都不知道的电脑关机方法</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/682006860000000022026dda?xsec_token=ABVMKZNeXrVHNOj_EboBaY9j95R0kL48yzEHn7FWOHZyo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生编程电脑推荐</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/68282ddb000000000f032e7a?xsec_token=ABpV_-3nELdujAX4A6WqxVBJKfKgHMBINp8DHXhocMmHI=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>学习时，你有选择恐惧症吗</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/67caf3fd000000002900de76?xsec_token=ABh2yyKvE49nkTofSztAMlW9NR2K1lPNFe-nDtZqdZVVc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>斯坦福大学畅销书专家和你聊AI</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6800f172000000001c031350?xsec_token=ABPyMEUtXTKEn6SYkIAb5hLlODT9bBi5qQMcDvMdO1ppo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生编程入门书籍推荐，别再花钱走弯路了</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6655e3f50000000016012608?xsec_token=ABoJpfu4oOthrmB1IbTiBybl700hejpGgV_5gpMHIPc3Q=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>什么是热爱</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6632f2de000000001e031298?xsec_token=ABMAe4V-hDhj2Q-Vzghjl0-IPjatXESvMdXjut4Rzayjo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>小学生学编程都应该参加的考试</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6753edec0000000007025f10?xsec_token=ABICija-Do44E8GcKu7NDTe0Rh9z-eQxICLbVOx0LkR-w=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>csp-j考完了，杭州一个考场的考生就这么多，真卷啊</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66ee62f4000000000c018c57?xsec_token=ABYuTML5YKCvZLoGO0egO80fazGCo8GWiSetl5u-3u3ro=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>一分钟学会函数，包会</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66bb74f6000000001e01c2dc?xsec_token=ABtfmgD4wDimtz8LYFd328bn6hjTDyUJCE-0WtZGD785k=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>据说是程序员的标配</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/663e2ff5000000001e036324?xsec_token=ABYcDO-WpMp9MeWx6F96F71Oojk2cVsaP3rEMisYk24Ow=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>人工智能会不会干坏事会抢走人类饭碗吗</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/681208e00000000021008e64?xsec_token=ABM0o9KdqYkbyxgE_fcPnmXos99PdmSc_vDHnpsrZ-oY4=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>家有喜欢编程的小朋友</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66fb7344000000001b02247f?xsec_token=ABRg-zPAMJIahVFmFDo8z5OcuCjwcOLa4-fKXUXOtb1Sc=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>你们要的源代码来了</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/672e232d000000001b010732?xsec_token=AB4jGa0_-wNyPR1xleaoizbz4tcXl-zZiK0kPxlEH9hzU=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>杭州信奥赛考场</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6505126d000000001d0148be?xsec_token=ABzap-M-MWsKTZE3w9OVCd7xgz0zd9L0qRxbGDicekiAM=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>信奥赛考完了</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/6505559a000000001e03eade?xsec_token=ABzap-M-MWsKTZE3w9OVCd74e4Yb_YOwaGGdktE2-cRjo=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>信奥赛，你准备好了吗</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66e7a92800000000120138c7?xsec_token=AB9prsYq5V8aQ8P6yVfk8mPJGH1KPETWdViTPcU5qJuy4=&amp;xsec_source=pc_user</t>
-  </si>
-  <si>
-    <t>csp-j 复赛加油💪</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>https://www.xiaohongshu.com/explore/66f6aaf6000000001a022782?xsec_token=ABcoqrLQFmNnt-gyv7a2yNysVfsJ1TOZgucBaoQFUsln0=&amp;xsec_source=pc_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +639,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -671,16 +682,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,7 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1021,738 +1037,743 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
         <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
         <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
         <v>168</v>
-      </c>
-      <c r="C60" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
         <v>179</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
         <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E793C39E-CD2C-4406-814F-33689447168B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0F5D7DAA-701D-43A1-8E75-AEDCE4CEA774}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{EDD3CD53-A206-4970-BFCD-76A5451EAE79}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>